--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmai\eclipse-workspace\datadrivenframeworkkk\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D63EEB-175D-4463-AAC7-67ACE6E4CDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC930755-62BC-4077-A0B7-388269F38D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="1320" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22656" windowHeight="10332" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Y</t>
   </si>
@@ -68,9 +68,6 @@
     <t>alerttext</t>
   </si>
   <si>
-    <t>runmode</t>
-  </si>
-  <si>
     <t>Raman</t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>Rupee</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Dollar</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3719E1-D46C-4A80-8311-54FFF7C0420E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +520,7 @@
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -527,76 +533,61 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -606,27 +597,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C98F275-4718-40F9-92DD-5BBC39569E2E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
     </row>
